--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cxcl12-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H2">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I2">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J2">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N2">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O2">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P2">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q2">
-        <v>287.3847586937007</v>
+        <v>749.0934852216719</v>
       </c>
       <c r="R2">
-        <v>287.3847586937007</v>
+        <v>6741.841366995048</v>
       </c>
       <c r="S2">
-        <v>0.07593532438071023</v>
+        <v>0.1175396605228697</v>
       </c>
       <c r="T2">
-        <v>0.07593532438071023</v>
+        <v>0.1264724171365879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H3">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I3">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J3">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N3">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P3">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q3">
-        <v>436.7305476051146</v>
+        <v>484.3348381553228</v>
       </c>
       <c r="R3">
-        <v>436.7305476051146</v>
+        <v>4359.013543397904</v>
       </c>
       <c r="S3">
-        <v>0.1153967800870941</v>
+        <v>0.07599659265402549</v>
       </c>
       <c r="T3">
-        <v>0.1153967800870941</v>
+        <v>0.08177216715058622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H4">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I4">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J4">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N4">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O4">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P4">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q4">
-        <v>24.90972487417358</v>
+        <v>28.49145211129111</v>
       </c>
       <c r="R4">
-        <v>24.90972487417358</v>
+        <v>256.42306900162</v>
       </c>
       <c r="S4">
-        <v>0.006581866231015537</v>
+        <v>0.004470570996854625</v>
       </c>
       <c r="T4">
-        <v>0.006581866231015537</v>
+        <v>0.004810324595440865</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H5">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I5">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J5">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N5">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O5">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P5">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q5">
-        <v>45.63135995994808</v>
+        <v>56.00245745446578</v>
       </c>
       <c r="R5">
-        <v>45.63135995994808</v>
+        <v>504.022117090192</v>
       </c>
       <c r="S5">
-        <v>0.01205711860379032</v>
+        <v>0.008787300874331407</v>
       </c>
       <c r="T5">
-        <v>0.01205711860379032</v>
+        <v>0.009455116483571176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>148.476719185462</v>
+        <v>157.1060946666667</v>
       </c>
       <c r="H6">
-        <v>148.476719185462</v>
+        <v>471.318284</v>
       </c>
       <c r="I6">
-        <v>0.2389459218736932</v>
+        <v>0.2254482030285327</v>
       </c>
       <c r="J6">
-        <v>0.2389459218736932</v>
+        <v>0.2358911900507825</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N6">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O6">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P6">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q6">
-        <v>109.6581246546481</v>
+        <v>118.8845384256867</v>
       </c>
       <c r="R6">
-        <v>109.6581246546481</v>
+        <v>713.30723055412</v>
       </c>
       <c r="S6">
-        <v>0.02897483257108298</v>
+        <v>0.01865407798045151</v>
       </c>
       <c r="T6">
-        <v>0.02897483257108298</v>
+        <v>0.01338116468459635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H7">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I7">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J7">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N7">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O7">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P7">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q7">
-        <v>757.6734961637418</v>
+        <v>2129.747916319206</v>
       </c>
       <c r="R7">
-        <v>757.6734961637418</v>
+        <v>19167.73124687285</v>
       </c>
       <c r="S7">
-        <v>0.2001991440582324</v>
+        <v>0.3341770446840435</v>
       </c>
       <c r="T7">
-        <v>0.2001991440582324</v>
+        <v>0.3595737677371391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H8">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I8">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J8">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N8">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P8">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q8">
-        <v>1151.415135547082</v>
+        <v>1377.012526089255</v>
       </c>
       <c r="R8">
-        <v>1151.415135547082</v>
+        <v>12393.11273480329</v>
       </c>
       <c r="S8">
-        <v>0.304237017342366</v>
+        <v>0.2160659357548337</v>
       </c>
       <c r="T8">
-        <v>0.304237017342366</v>
+        <v>0.2324864733676479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H9">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I9">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J9">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N9">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O9">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P9">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q9">
-        <v>65.67306637860931</v>
+        <v>81.00405618795943</v>
       </c>
       <c r="R9">
-        <v>65.67306637860931</v>
+        <v>729.0365056916349</v>
       </c>
       <c r="S9">
-        <v>0.01735271425389242</v>
+        <v>0.0127102817647529</v>
       </c>
       <c r="T9">
-        <v>0.01735271425389242</v>
+        <v>0.01367623532452371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H10">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I10">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J10">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N10">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O10">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P10">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q10">
-        <v>120.3044733225022</v>
+        <v>159.2206038704351</v>
       </c>
       <c r="R10">
-        <v>120.3044733225022</v>
+        <v>1432.985434833916</v>
       </c>
       <c r="S10">
-        <v>0.03178790429847157</v>
+        <v>0.02498317779607866</v>
       </c>
       <c r="T10">
-        <v>0.03178790429847157</v>
+        <v>0.02688184455840267</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>391.450386706388</v>
+        <v>446.6683856666667</v>
       </c>
       <c r="H11">
-        <v>391.450386706388</v>
+        <v>1340.005157</v>
       </c>
       <c r="I11">
-        <v>0.6299672705088303</v>
+        <v>0.6409718547957218</v>
       </c>
       <c r="J11">
-        <v>0.6299672705088303</v>
+        <v>0.6706623143839581</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N11">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O11">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P11">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q11">
-        <v>289.1073801808677</v>
+        <v>338.0006674597517</v>
       </c>
       <c r="R11">
-        <v>289.1073801808677</v>
+        <v>2028.00400475851</v>
       </c>
       <c r="S11">
-        <v>0.07639049055586786</v>
+        <v>0.05303541479601322</v>
       </c>
       <c r="T11">
-        <v>0.07639049055586786</v>
+        <v>0.03804399339624472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H12">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I12">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J12">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N12">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O12">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P12">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q12">
-        <v>0.5766735102608562</v>
+        <v>2.260860165642</v>
       </c>
       <c r="R12">
-        <v>0.5766735102608562</v>
+        <v>20.347741490778</v>
       </c>
       <c r="S12">
-        <v>0.0001523737384768304</v>
+        <v>0.0003547497630160293</v>
       </c>
       <c r="T12">
-        <v>0.0001523737384768304</v>
+        <v>0.0003817099675776193</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H13">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I13">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J13">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N13">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P13">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q13">
-        <v>0.8763545397131317</v>
+        <v>1.461784629049334</v>
       </c>
       <c r="R13">
-        <v>0.8763545397131317</v>
+        <v>13.156061661444</v>
       </c>
       <c r="S13">
-        <v>0.0002315580914872063</v>
+        <v>0.0002293674587293512</v>
       </c>
       <c r="T13">
-        <v>0.0002315580914872063</v>
+        <v>0.000246798882938184</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H14">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I14">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J14">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N14">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O14">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P14">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q14">
-        <v>0.04998448264311769</v>
+        <v>0.08599085482722224</v>
       </c>
       <c r="R14">
-        <v>0.04998448264311769</v>
+        <v>0.7739176934450001</v>
       </c>
       <c r="S14">
-        <v>1.320733890259129E-05</v>
+        <v>1.349275635666769E-05</v>
       </c>
       <c r="T14">
-        <v>1.320733890259129E-05</v>
+        <v>1.451817627064524E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H15">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I15">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J15">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N15">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O15">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P15">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q15">
-        <v>0.09156503861127255</v>
+        <v>0.1690225956235556</v>
       </c>
       <c r="R15">
-        <v>0.09156503861127255</v>
+        <v>1.521203360612</v>
       </c>
       <c r="S15">
-        <v>2.419411850678511E-05</v>
+        <v>2.652120049396504E-05</v>
       </c>
       <c r="T15">
-        <v>2.419411850678511E-05</v>
+        <v>2.853675361077975E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.297937132205239</v>
+        <v>0.4741663333333334</v>
       </c>
       <c r="H16">
-        <v>0.297937132205239</v>
+        <v>1.422499</v>
       </c>
       <c r="I16">
-        <v>0.000479474917722696</v>
+        <v>0.0006804315772309074</v>
       </c>
       <c r="J16">
-        <v>0.000479474917722696</v>
+        <v>0.0007119498507637953</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.738554335361319</v>
+        <v>0.756715</v>
       </c>
       <c r="N16">
-        <v>0.738554335361319</v>
+        <v>1.51343</v>
       </c>
       <c r="O16">
-        <v>0.1212610466162259</v>
+        <v>0.08274218969086504</v>
       </c>
       <c r="P16">
-        <v>0.1212610466162259</v>
+        <v>0.05672600439938289</v>
       </c>
       <c r="Q16">
-        <v>0.2200427606552977</v>
+        <v>0.3588087769283334</v>
       </c>
       <c r="R16">
-        <v>0.2200427606552977</v>
+        <v>2.15285266157</v>
       </c>
       <c r="S16">
-        <v>5.814163034928291E-05</v>
+        <v>5.630039863489423E-05</v>
       </c>
       <c r="T16">
-        <v>5.814163034928291E-05</v>
+        <v>4.038607036656704E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H17">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I17">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J17">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.93555434326865</v>
+        <v>4.768073999999999</v>
       </c>
       <c r="N17">
-        <v>1.93555434326865</v>
+        <v>14.304222</v>
       </c>
       <c r="O17">
-        <v>0.3177929289826911</v>
+        <v>0.5213599352042468</v>
       </c>
       <c r="P17">
-        <v>0.3177929289826911</v>
+        <v>0.5361472681932758</v>
       </c>
       <c r="Q17">
-        <v>157.0838978845908</v>
+        <v>0.2938643474099999</v>
       </c>
       <c r="R17">
-        <v>157.0838978845908</v>
+        <v>2.64477912669</v>
       </c>
       <c r="S17">
-        <v>0.04150608680527156</v>
+        <v>4.611002006528563E-05</v>
       </c>
       <c r="T17">
-        <v>0.04150608680527156</v>
+        <v>4.961428054098027E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1529,49 +1529,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H18">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I18">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J18">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.94140758228632</v>
+        <v>3.082852</v>
       </c>
       <c r="N18">
-        <v>2.94140758228632</v>
+        <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.4829409900876771</v>
+        <v>0.3370911439219029</v>
       </c>
       <c r="P18">
-        <v>0.4829409900876771</v>
+        <v>0.3466520607784562</v>
       </c>
       <c r="Q18">
-        <v>238.715988471058</v>
+        <v>0.1900013068466667</v>
       </c>
       <c r="R18">
-        <v>238.715988471058</v>
+        <v>1.71001176162</v>
       </c>
       <c r="S18">
-        <v>0.06307563456672974</v>
+        <v>2.981295331790278E-05</v>
       </c>
       <c r="T18">
-        <v>0.06307563456672974</v>
+        <v>3.207867243552053E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1591,49 +1591,49 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H19">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I19">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J19">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.167768556652029</v>
+        <v>0.1813516666666667</v>
       </c>
       <c r="N19">
-        <v>0.167768556652029</v>
+        <v>0.544055</v>
       </c>
       <c r="O19">
-        <v>0.0275454219071992</v>
+        <v>0.01982970339439268</v>
       </c>
       <c r="P19">
-        <v>0.0275454219071992</v>
+        <v>0.02039213331538707</v>
       </c>
       <c r="Q19">
-        <v>13.61560263757196</v>
+        <v>0.01117700546944444</v>
       </c>
       <c r="R19">
-        <v>13.61560263757196</v>
+        <v>0.100593049225</v>
       </c>
       <c r="S19">
-        <v>0.003597634083388652</v>
+        <v>1.75377500199724E-06</v>
       </c>
       <c r="T19">
-        <v>0.003597634083388652</v>
+        <v>1.887058058783136E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>81.157058922622</v>
+        <v>0.06163166666666667</v>
       </c>
       <c r="H20">
-        <v>81.157058922622</v>
+        <v>0.184895</v>
       </c>
       <c r="I20">
-        <v>0.1306073326997538</v>
+        <v>8.844181716268947E-05</v>
       </c>
       <c r="J20">
-        <v>0.1306073326997538</v>
+        <v>9.253853089314783E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.307330066358417</v>
+        <v>0.3564626666666666</v>
       </c>
       <c r="N20">
-        <v>0.307330066358417</v>
+        <v>1.069388</v>
       </c>
       <c r="O20">
-        <v>0.05045961240620675</v>
+        <v>0.0389770277885927</v>
       </c>
       <c r="P20">
-        <v>0.05045961240620675</v>
+        <v>0.04008253331349799</v>
       </c>
       <c r="Q20">
-        <v>24.94200430414337</v>
+        <v>0.02196938825111111</v>
       </c>
       <c r="R20">
-        <v>24.94200430414337</v>
+        <v>0.19772449426</v>
       </c>
       <c r="S20">
-        <v>0.006590395385438068</v>
+        <v>3.447199165223783E-06</v>
       </c>
       <c r="T20">
-        <v>0.006590395385438068</v>
+        <v>3.709178747306761E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06163166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.184895</v>
+      </c>
+      <c r="I21">
+        <v>8.844181716268947E-05</v>
+      </c>
+      <c r="J21">
+        <v>9.253853089314783E-05</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.756715</v>
+      </c>
+      <c r="N21">
+        <v>1.51343</v>
+      </c>
+      <c r="O21">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P21">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q21">
+        <v>0.04663760664166667</v>
+      </c>
+      <c r="R21">
+        <v>0.27982563985</v>
+      </c>
+      <c r="S21">
+        <v>7.317869612280056E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.249341110557134E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H22">
+        <v>185.101749</v>
+      </c>
+      <c r="I22">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J22">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.768073999999999</v>
+      </c>
+      <c r="N22">
+        <v>14.304222</v>
+      </c>
+      <c r="O22">
+        <v>0.5213599352042468</v>
+      </c>
+      <c r="P22">
+        <v>0.5361472681932758</v>
+      </c>
+      <c r="Q22">
+        <v>441.2894183807129</v>
+      </c>
+      <c r="R22">
+        <v>2647.736510284278</v>
+      </c>
+      <c r="S22">
+        <v>0.06924237021425239</v>
+      </c>
+      <c r="T22">
+        <v>0.04966975907143035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H23">
+        <v>185.101749</v>
+      </c>
+      <c r="I23">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J23">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082852</v>
+      </c>
+      <c r="N23">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.3370911439219029</v>
+      </c>
+      <c r="P23">
+        <v>0.3466520607784562</v>
+      </c>
+      <c r="Q23">
+        <v>285.320648554074</v>
+      </c>
+      <c r="R23">
+        <v>1711.923891324444</v>
+      </c>
+      <c r="S23">
+        <v>0.04476943510099643</v>
+      </c>
+      <c r="T23">
+        <v>0.03211454270484838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H24">
+        <v>185.101749</v>
+      </c>
+      <c r="I24">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J24">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1813516666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.544055</v>
+      </c>
+      <c r="O24">
+        <v>0.01982970339439268</v>
+      </c>
+      <c r="P24">
+        <v>0.02039213331538707</v>
+      </c>
+      <c r="Q24">
+        <v>16.7842553420325</v>
+      </c>
+      <c r="R24">
+        <v>100.705532052195</v>
+      </c>
+      <c r="S24">
+        <v>0.002633604101426493</v>
+      </c>
+      <c r="T24">
+        <v>0.00188916816109307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="H21">
-        <v>81.157058922622</v>
-      </c>
-      <c r="I21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="J21">
-        <v>0.1306073326997538</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="N21">
-        <v>0.738554335361319</v>
-      </c>
-      <c r="O21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="P21">
-        <v>0.1212610466162259</v>
-      </c>
-      <c r="Q21">
-        <v>59.9388977124765</v>
-      </c>
-      <c r="R21">
-        <v>59.9388977124765</v>
-      </c>
-      <c r="S21">
-        <v>0.01583758185892577</v>
-      </c>
-      <c r="T21">
-        <v>0.01583758185892577</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H25">
+        <v>185.101749</v>
+      </c>
+      <c r="I25">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J25">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3564626666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.069388</v>
+      </c>
+      <c r="O25">
+        <v>0.0389770277885927</v>
+      </c>
+      <c r="P25">
+        <v>0.04008253331349799</v>
+      </c>
+      <c r="Q25">
+        <v>32.990931526602</v>
+      </c>
+      <c r="R25">
+        <v>197.945589159612</v>
+      </c>
+      <c r="S25">
+        <v>0.005176580718523449</v>
+      </c>
+      <c r="T25">
+        <v>0.00371332633916607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>92.55087449999999</v>
+      </c>
+      <c r="H26">
+        <v>185.101749</v>
+      </c>
+      <c r="I26">
+        <v>0.1328110687813519</v>
+      </c>
+      <c r="J26">
+        <v>0.09264200718360256</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.756715</v>
+      </c>
+      <c r="N26">
+        <v>1.51343</v>
+      </c>
+      <c r="O26">
+        <v>0.08274218969086504</v>
+      </c>
+      <c r="P26">
+        <v>0.05672600439938289</v>
+      </c>
+      <c r="Q26">
+        <v>70.0346349972675</v>
+      </c>
+      <c r="R26">
+        <v>280.13853998907</v>
+      </c>
+      <c r="S26">
+        <v>0.01098907864615314</v>
+      </c>
+      <c r="T26">
+        <v>0.0052552109070647</v>
       </c>
     </row>
   </sheetData>
